--- a/map/result.xlsx
+++ b/map/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\class\211\AI\AI_A1\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64FA601-A932-488F-924A-13980A5C70AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2C783B-0996-4882-BD89-26CC6D5FEC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="590" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="deadlock" sheetId="3" r:id="rId1"/>
@@ -4669,7 +4669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91CBF75B-8D46-4B19-A91E-660FC70635E5}">
   <dimension ref="A1:U91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="R45" sqref="R45:U45"/>
     </sheetView>
   </sheetViews>
@@ -9994,8 +9994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA2C156-9DBB-46D3-8372-77545E6E3719}">
   <dimension ref="A1:AN92"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V44" sqref="V44:Y44"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="V79" sqref="V79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -17133,18 +17133,18 @@
         <v>14</v>
       </c>
       <c r="B91" s="1">
-        <f>AVERAGE(B51,B53:B54,B56:B66,B68,B70:B71,B73,B75,B77:B90)</f>
+        <f>AVERAGE(B51,B53:B54,B56:B66,B68,B70,B71,B73,B75,B77,B78,B79,B80,B81:B90)</f>
         <v>38.469933333333337</v>
       </c>
-      <c r="C91" s="24">
-        <f t="shared" ref="C91:E92" si="10">AVERAGE(C51,C53:C54,C56:C66,C68,C70:C71,C73,C75,C77:C90)</f>
+      <c r="C91" s="33">
+        <f t="shared" ref="C91:F91" si="10">AVERAGE(C51,C53:C54,C56:C66,C68,C70,C71,C73,C75,C77,C78,C79,C80,C81:C90)</f>
         <v>125.75757575757575</v>
       </c>
-      <c r="D91" s="24">
+      <c r="D91" s="33">
         <f t="shared" si="10"/>
         <v>31904.909090909092</v>
       </c>
-      <c r="E91" s="24">
+      <c r="E91" s="33">
         <f t="shared" si="10"/>
         <v>75696.363636363632</v>
       </c>
